--- a/博泰_小悟-火车/版本需求文档/to博泰-火车变量文档.xlsx
+++ b/博泰_小悟-火车/版本需求文档/to博泰-火车变量文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15750" windowHeight="7665" activeTab="1"/>
+    <workbookView windowWidth="21660" windowHeight="10185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本管理" sheetId="6" r:id="rId1"/>
@@ -1098,8 +1098,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1167,8 +1167,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,11 +1188,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1212,9 +1218,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,25 +1242,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1266,8 +1257,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1283,14 +1282,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1323,6 +1323,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1335,19 +1377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,37 +1389,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,13 +1425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,31 +1437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,7 +1461,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,31 +1491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,17 +1611,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1641,6 +1635,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1652,44 +1655,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1708,6 +1673,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1716,149 +1716,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2002,6 +2002,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2397,19 +2403,19 @@
       <c r="B1" s="8"/>
     </row>
     <row r="2" ht="16.5" spans="2:6">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="63" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2426,7 +2432,7 @@
       <c r="E3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="64">
         <v>20190905</v>
       </c>
     </row>
@@ -2443,7 +2449,7 @@
       <c r="E4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="64">
         <v>20190906</v>
       </c>
     </row>
@@ -2461,8 +2467,8 @@
   <sheetPr/>
   <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -4745,7 +4751,10 @@
       </c>
       <c r="G133" s="22"/>
     </row>
-    <row r="134" spans="4:7">
+    <row r="134" spans="1:7">
+      <c r="A134" s="48"/>
+      <c r="B134" s="49"/>
+      <c r="C134" s="49"/>
       <c r="D134" s="19" t="s">
         <v>340</v>
       </c>
@@ -4755,9 +4764,12 @@
       <c r="F134" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="G134" s="48"/>
-    </row>
-    <row r="135" spans="4:7">
+      <c r="G134" s="22"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="48"/>
+      <c r="B135" s="49"/>
+      <c r="C135" s="49"/>
       <c r="D135" s="19" t="s">
         <v>342</v>
       </c>
@@ -4767,480 +4779,480 @@
       <c r="F135" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="G135" s="48"/>
+      <c r="G135" s="22"/>
     </row>
     <row r="136" spans="7:7">
-      <c r="G136" s="48"/>
+      <c r="G136" s="50"/>
     </row>
     <row r="137" spans="4:7">
       <c r="D137"/>
       <c r="E137"/>
-      <c r="F137" s="49"/>
-      <c r="G137" s="48"/>
+      <c r="F137" s="51"/>
+      <c r="G137" s="50"/>
     </row>
     <row r="138" spans="4:7">
       <c r="D138"/>
       <c r="E138"/>
-      <c r="F138" s="49"/>
-      <c r="G138" s="48"/>
+      <c r="F138" s="51"/>
+      <c r="G138" s="50"/>
     </row>
     <row r="139" spans="4:7">
       <c r="D139"/>
       <c r="E139"/>
-      <c r="F139" s="49"/>
-      <c r="G139" s="48"/>
+      <c r="F139" s="51"/>
+      <c r="G139" s="50"/>
     </row>
     <row r="140" spans="4:7">
-      <c r="D140" s="48"/>
-      <c r="E140" s="48"/>
-      <c r="F140" s="50"/>
-      <c r="G140" s="48"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="52"/>
+      <c r="G140" s="50"/>
     </row>
     <row r="141" spans="4:7">
-      <c r="D141" s="48"/>
-      <c r="E141" s="48"/>
-      <c r="F141" s="50"/>
-      <c r="G141" s="48"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="50"/>
+      <c r="F141" s="52"/>
+      <c r="G141" s="50"/>
     </row>
     <row r="142" spans="4:7">
-      <c r="D142" s="48"/>
-      <c r="E142" s="48"/>
-      <c r="F142" s="50"/>
-      <c r="G142" s="48"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="52"/>
+      <c r="G142" s="50"/>
     </row>
     <row r="143" spans="4:7">
-      <c r="D143" s="48"/>
-      <c r="E143" s="48"/>
-      <c r="F143" s="50"/>
-      <c r="G143" s="48"/>
+      <c r="D143" s="50"/>
+      <c r="E143" s="50"/>
+      <c r="F143" s="52"/>
+      <c r="G143" s="50"/>
     </row>
     <row r="144" spans="4:7">
-      <c r="D144" s="48"/>
-      <c r="E144" s="48"/>
-      <c r="F144" s="50"/>
-      <c r="G144" s="48"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="52"/>
+      <c r="G144" s="50"/>
     </row>
     <row r="145" spans="4:7">
-      <c r="D145" s="48"/>
-      <c r="E145" s="48"/>
-      <c r="F145" s="50"/>
-      <c r="G145" s="48"/>
+      <c r="D145" s="50"/>
+      <c r="E145" s="50"/>
+      <c r="F145" s="52"/>
+      <c r="G145" s="50"/>
     </row>
     <row r="146" spans="4:7">
-      <c r="D146" s="48"/>
-      <c r="E146" s="48"/>
-      <c r="F146" s="50"/>
-      <c r="G146" s="48"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="50"/>
+      <c r="F146" s="52"/>
+      <c r="G146" s="50"/>
     </row>
     <row r="147" spans="4:7">
-      <c r="D147" s="48"/>
-      <c r="E147" s="48"/>
-      <c r="F147" s="50"/>
-      <c r="G147" s="48"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="52"/>
+      <c r="G147" s="50"/>
     </row>
     <row r="148" spans="4:7">
-      <c r="D148" s="48"/>
-      <c r="E148" s="48"/>
-      <c r="F148" s="50"/>
-      <c r="G148" s="48"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="50"/>
+      <c r="F148" s="52"/>
+      <c r="G148" s="50"/>
     </row>
     <row r="149" spans="4:7">
-      <c r="D149" s="48"/>
-      <c r="E149" s="48"/>
-      <c r="F149" s="50"/>
-      <c r="G149" s="48"/>
+      <c r="D149" s="50"/>
+      <c r="E149" s="50"/>
+      <c r="F149" s="52"/>
+      <c r="G149" s="50"/>
     </row>
     <row r="150" spans="4:7">
-      <c r="D150" s="48"/>
-      <c r="E150" s="48"/>
-      <c r="F150" s="50"/>
-      <c r="G150" s="48"/>
+      <c r="D150" s="50"/>
+      <c r="E150" s="50"/>
+      <c r="F150" s="52"/>
+      <c r="G150" s="50"/>
     </row>
     <row r="151" spans="4:7">
-      <c r="D151" s="48"/>
-      <c r="E151" s="48"/>
-      <c r="F151" s="50"/>
-      <c r="G151" s="48"/>
+      <c r="D151" s="50"/>
+      <c r="E151" s="50"/>
+      <c r="F151" s="52"/>
+      <c r="G151" s="50"/>
     </row>
     <row r="152" spans="4:7">
-      <c r="D152" s="48"/>
-      <c r="E152" s="48"/>
-      <c r="F152" s="50"/>
-      <c r="G152" s="48"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="50"/>
+      <c r="F152" s="52"/>
+      <c r="G152" s="50"/>
     </row>
     <row r="153" spans="4:7">
-      <c r="D153" s="48"/>
-      <c r="E153" s="48"/>
-      <c r="F153" s="50"/>
-      <c r="G153" s="48"/>
+      <c r="D153" s="50"/>
+      <c r="E153" s="50"/>
+      <c r="F153" s="52"/>
+      <c r="G153" s="50"/>
     </row>
     <row r="154" spans="4:7">
-      <c r="D154" s="48"/>
-      <c r="E154" s="48"/>
-      <c r="F154" s="50"/>
-      <c r="G154" s="48"/>
+      <c r="D154" s="50"/>
+      <c r="E154" s="50"/>
+      <c r="F154" s="52"/>
+      <c r="G154" s="50"/>
     </row>
     <row r="155" spans="4:7">
-      <c r="D155" s="48"/>
-      <c r="E155" s="48"/>
-      <c r="F155" s="50"/>
-      <c r="G155" s="48"/>
+      <c r="D155" s="50"/>
+      <c r="E155" s="50"/>
+      <c r="F155" s="52"/>
+      <c r="G155" s="50"/>
     </row>
     <row r="156" spans="4:7">
-      <c r="D156" s="48"/>
-      <c r="E156" s="48"/>
-      <c r="F156" s="50"/>
-      <c r="G156" s="48"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="52"/>
+      <c r="G156" s="50"/>
     </row>
     <row r="157" spans="4:7">
-      <c r="D157" s="48"/>
-      <c r="E157" s="48"/>
-      <c r="F157" s="50"/>
-      <c r="G157" s="48"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="50"/>
+      <c r="F157" s="52"/>
+      <c r="G157" s="50"/>
     </row>
     <row r="158" spans="4:7">
-      <c r="D158" s="48"/>
-      <c r="E158" s="48"/>
-      <c r="F158" s="50"/>
-      <c r="G158" s="48"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="50"/>
+      <c r="F158" s="52"/>
+      <c r="G158" s="50"/>
     </row>
     <row r="159" spans="4:7">
-      <c r="D159" s="48"/>
-      <c r="E159" s="48"/>
-      <c r="F159" s="50"/>
-      <c r="G159" s="48"/>
+      <c r="D159" s="50"/>
+      <c r="E159" s="50"/>
+      <c r="F159" s="52"/>
+      <c r="G159" s="50"/>
     </row>
     <row r="160" spans="4:7">
-      <c r="D160" s="48"/>
-      <c r="E160" s="48"/>
-      <c r="F160" s="50"/>
-      <c r="G160" s="48"/>
+      <c r="D160" s="50"/>
+      <c r="E160" s="50"/>
+      <c r="F160" s="52"/>
+      <c r="G160" s="50"/>
     </row>
     <row r="161" spans="4:7">
-      <c r="D161" s="48"/>
-      <c r="E161" s="48"/>
-      <c r="F161" s="50"/>
-      <c r="G161" s="48"/>
+      <c r="D161" s="50"/>
+      <c r="E161" s="50"/>
+      <c r="F161" s="52"/>
+      <c r="G161" s="50"/>
     </row>
     <row r="162" spans="4:7">
-      <c r="D162" s="48"/>
-      <c r="E162" s="48"/>
-      <c r="F162" s="50"/>
-      <c r="G162" s="48"/>
+      <c r="D162" s="50"/>
+      <c r="E162" s="50"/>
+      <c r="F162" s="52"/>
+      <c r="G162" s="50"/>
     </row>
     <row r="163" spans="4:7">
-      <c r="D163" s="48"/>
-      <c r="E163" s="48"/>
-      <c r="F163" s="50"/>
-      <c r="G163" s="48"/>
+      <c r="D163" s="50"/>
+      <c r="E163" s="50"/>
+      <c r="F163" s="52"/>
+      <c r="G163" s="50"/>
     </row>
     <row r="164" spans="4:7">
-      <c r="D164" s="48"/>
-      <c r="E164" s="48"/>
-      <c r="F164" s="50"/>
-      <c r="G164" s="48"/>
+      <c r="D164" s="50"/>
+      <c r="E164" s="50"/>
+      <c r="F164" s="52"/>
+      <c r="G164" s="50"/>
     </row>
     <row r="165" spans="4:7">
-      <c r="D165" s="48"/>
-      <c r="E165" s="48"/>
-      <c r="F165" s="50"/>
-      <c r="G165" s="48"/>
+      <c r="D165" s="50"/>
+      <c r="E165" s="50"/>
+      <c r="F165" s="52"/>
+      <c r="G165" s="50"/>
     </row>
     <row r="166" spans="4:7">
-      <c r="D166" s="48"/>
-      <c r="E166" s="48"/>
-      <c r="F166" s="50"/>
-      <c r="G166" s="48"/>
+      <c r="D166" s="50"/>
+      <c r="E166" s="50"/>
+      <c r="F166" s="52"/>
+      <c r="G166" s="50"/>
     </row>
     <row r="167" s="2" customFormat="1" spans="2:8">
-      <c r="B167" s="51"/>
-      <c r="C167" s="51"/>
-      <c r="D167" s="48"/>
-      <c r="E167" s="48"/>
-      <c r="F167" s="50"/>
-      <c r="G167" s="48"/>
-      <c r="H167" s="52"/>
+      <c r="B167" s="53"/>
+      <c r="C167" s="53"/>
+      <c r="D167" s="50"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="52"/>
+      <c r="G167" s="50"/>
+      <c r="H167" s="54"/>
     </row>
     <row r="168" spans="4:7">
-      <c r="D168" s="48"/>
-      <c r="E168" s="48"/>
-      <c r="F168" s="50"/>
-      <c r="G168" s="48"/>
+      <c r="D168" s="50"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="52"/>
+      <c r="G168" s="50"/>
     </row>
     <row r="169" s="3" customFormat="1" spans="2:8">
-      <c r="B169" s="53"/>
-      <c r="C169" s="53"/>
-      <c r="D169" s="48"/>
-      <c r="E169" s="48"/>
-      <c r="F169" s="50"/>
-      <c r="G169" s="48"/>
-      <c r="H169" s="54"/>
+      <c r="B169" s="55"/>
+      <c r="C169" s="55"/>
+      <c r="D169" s="50"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="52"/>
+      <c r="G169" s="50"/>
+      <c r="H169" s="56"/>
     </row>
     <row r="170" spans="4:7">
-      <c r="D170" s="48"/>
-      <c r="E170" s="48"/>
-      <c r="F170" s="50"/>
-      <c r="G170" s="48"/>
+      <c r="D170" s="50"/>
+      <c r="E170" s="50"/>
+      <c r="F170" s="52"/>
+      <c r="G170" s="50"/>
     </row>
     <row r="171" spans="4:7">
-      <c r="D171" s="48"/>
-      <c r="E171" s="48"/>
-      <c r="F171" s="50"/>
-      <c r="G171" s="48"/>
+      <c r="D171" s="50"/>
+      <c r="E171" s="50"/>
+      <c r="F171" s="52"/>
+      <c r="G171" s="50"/>
     </row>
     <row r="172" spans="4:7">
-      <c r="D172" s="48"/>
-      <c r="E172" s="48"/>
-      <c r="F172" s="50"/>
-      <c r="G172" s="48"/>
+      <c r="D172" s="50"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="52"/>
+      <c r="G172" s="50"/>
     </row>
     <row r="173" spans="4:7">
-      <c r="D173" s="48"/>
-      <c r="E173" s="48"/>
-      <c r="F173" s="50"/>
-      <c r="G173" s="48"/>
+      <c r="D173" s="50"/>
+      <c r="E173" s="50"/>
+      <c r="F173" s="52"/>
+      <c r="G173" s="50"/>
     </row>
     <row r="174" spans="4:7">
-      <c r="D174" s="48"/>
-      <c r="E174" s="48"/>
-      <c r="F174" s="50"/>
-      <c r="G174" s="48"/>
+      <c r="D174" s="50"/>
+      <c r="E174" s="50"/>
+      <c r="F174" s="52"/>
+      <c r="G174" s="50"/>
     </row>
     <row r="175" spans="4:7">
-      <c r="D175" s="55"/>
-      <c r="E175" s="48"/>
-      <c r="F175" s="50"/>
-      <c r="G175" s="48"/>
+      <c r="D175" s="57"/>
+      <c r="E175" s="50"/>
+      <c r="F175" s="52"/>
+      <c r="G175" s="50"/>
     </row>
     <row r="176" spans="4:7">
-      <c r="D176" s="55"/>
-      <c r="E176" s="48"/>
-      <c r="F176" s="50"/>
-      <c r="G176" s="48"/>
+      <c r="D176" s="57"/>
+      <c r="E176" s="50"/>
+      <c r="F176" s="52"/>
+      <c r="G176" s="50"/>
     </row>
     <row r="177" spans="4:7">
-      <c r="D177" s="48"/>
-      <c r="E177" s="48"/>
-      <c r="F177" s="50"/>
-      <c r="G177" s="48"/>
+      <c r="D177" s="50"/>
+      <c r="E177" s="50"/>
+      <c r="F177" s="52"/>
+      <c r="G177" s="50"/>
     </row>
     <row r="178" spans="4:7">
-      <c r="D178" s="48"/>
-      <c r="E178" s="48"/>
-      <c r="F178" s="50"/>
-      <c r="G178" s="48"/>
+      <c r="D178" s="50"/>
+      <c r="E178" s="50"/>
+      <c r="F178" s="52"/>
+      <c r="G178" s="50"/>
     </row>
     <row r="179" spans="4:7">
-      <c r="D179" s="48"/>
-      <c r="E179" s="48"/>
-      <c r="F179" s="50"/>
-      <c r="G179" s="48"/>
+      <c r="D179" s="50"/>
+      <c r="E179" s="50"/>
+      <c r="F179" s="52"/>
+      <c r="G179" s="50"/>
     </row>
     <row r="180" spans="4:7">
-      <c r="D180" s="48"/>
-      <c r="E180" s="48"/>
-      <c r="F180" s="50"/>
-      <c r="G180" s="48"/>
+      <c r="D180" s="50"/>
+      <c r="E180" s="50"/>
+      <c r="F180" s="52"/>
+      <c r="G180" s="50"/>
     </row>
     <row r="181" spans="4:7">
-      <c r="D181" s="48"/>
-      <c r="E181" s="48"/>
-      <c r="F181" s="50"/>
-      <c r="G181" s="48"/>
+      <c r="D181" s="50"/>
+      <c r="E181" s="50"/>
+      <c r="F181" s="52"/>
+      <c r="G181" s="50"/>
     </row>
     <row r="182" spans="4:7">
-      <c r="D182" s="48"/>
-      <c r="E182" s="48"/>
-      <c r="F182" s="50"/>
-      <c r="G182" s="48"/>
+      <c r="D182" s="50"/>
+      <c r="E182" s="50"/>
+      <c r="F182" s="52"/>
+      <c r="G182" s="50"/>
     </row>
     <row r="183" spans="4:7">
-      <c r="D183" s="48"/>
-      <c r="E183" s="48"/>
-      <c r="F183" s="50"/>
-      <c r="G183" s="48"/>
+      <c r="D183" s="50"/>
+      <c r="E183" s="50"/>
+      <c r="F183" s="52"/>
+      <c r="G183" s="50"/>
     </row>
     <row r="184" spans="4:7">
-      <c r="D184" s="48"/>
-      <c r="E184" s="48"/>
-      <c r="F184" s="50"/>
-      <c r="G184" s="48"/>
+      <c r="D184" s="50"/>
+      <c r="E184" s="50"/>
+      <c r="F184" s="52"/>
+      <c r="G184" s="50"/>
     </row>
     <row r="185" spans="4:7">
-      <c r="D185" s="48"/>
-      <c r="E185" s="48"/>
-      <c r="F185" s="50"/>
-      <c r="G185" s="48"/>
+      <c r="D185" s="50"/>
+      <c r="E185" s="50"/>
+      <c r="F185" s="52"/>
+      <c r="G185" s="50"/>
     </row>
     <row r="186" spans="4:7">
-      <c r="D186" s="48"/>
-      <c r="E186" s="48"/>
-      <c r="F186" s="50"/>
-      <c r="G186" s="48"/>
+      <c r="D186" s="50"/>
+      <c r="E186" s="50"/>
+      <c r="F186" s="52"/>
+      <c r="G186" s="50"/>
     </row>
     <row r="187" spans="4:7">
-      <c r="D187" s="48"/>
-      <c r="E187" s="48"/>
-      <c r="F187" s="50"/>
-      <c r="G187" s="48"/>
+      <c r="D187" s="50"/>
+      <c r="E187" s="50"/>
+      <c r="F187" s="52"/>
+      <c r="G187" s="50"/>
     </row>
     <row r="188" spans="4:7">
-      <c r="D188" s="48"/>
-      <c r="E188" s="48"/>
-      <c r="F188" s="50"/>
-      <c r="G188" s="48"/>
+      <c r="D188" s="50"/>
+      <c r="E188" s="50"/>
+      <c r="F188" s="52"/>
+      <c r="G188" s="50"/>
     </row>
     <row r="189" spans="4:7">
-      <c r="D189" s="48"/>
-      <c r="E189" s="48"/>
-      <c r="F189" s="50"/>
-      <c r="G189" s="48"/>
+      <c r="D189" s="50"/>
+      <c r="E189" s="50"/>
+      <c r="F189" s="52"/>
+      <c r="G189" s="50"/>
     </row>
     <row r="190" spans="4:7">
-      <c r="D190" s="48"/>
-      <c r="E190" s="48"/>
-      <c r="F190" s="50"/>
-      <c r="G190" s="48"/>
+      <c r="D190" s="50"/>
+      <c r="E190" s="50"/>
+      <c r="F190" s="52"/>
+      <c r="G190" s="50"/>
     </row>
     <row r="191" spans="4:7">
-      <c r="D191" s="48"/>
-      <c r="E191" s="48"/>
-      <c r="F191" s="50"/>
-      <c r="G191" s="48"/>
+      <c r="D191" s="50"/>
+      <c r="E191" s="50"/>
+      <c r="F191" s="52"/>
+      <c r="G191" s="50"/>
     </row>
     <row r="192" spans="4:7">
-      <c r="D192" s="48"/>
-      <c r="E192" s="48"/>
-      <c r="F192" s="50"/>
-      <c r="G192" s="48"/>
+      <c r="D192" s="50"/>
+      <c r="E192" s="50"/>
+      <c r="F192" s="52"/>
+      <c r="G192" s="50"/>
     </row>
     <row r="193" spans="4:7">
-      <c r="D193" s="48"/>
-      <c r="E193" s="48"/>
-      <c r="F193" s="50"/>
-      <c r="G193" s="48"/>
+      <c r="D193" s="50"/>
+      <c r="E193" s="50"/>
+      <c r="F193" s="52"/>
+      <c r="G193" s="50"/>
     </row>
     <row r="194" spans="4:7">
-      <c r="D194" s="48"/>
-      <c r="E194" s="48"/>
-      <c r="F194" s="50"/>
-      <c r="G194" s="48"/>
+      <c r="D194" s="50"/>
+      <c r="E194" s="50"/>
+      <c r="F194" s="52"/>
+      <c r="G194" s="50"/>
     </row>
     <row r="195" spans="4:7">
-      <c r="D195" s="48"/>
-      <c r="E195" s="48"/>
-      <c r="F195" s="50"/>
-      <c r="G195" s="48"/>
+      <c r="D195" s="50"/>
+      <c r="E195" s="50"/>
+      <c r="F195" s="52"/>
+      <c r="G195" s="50"/>
     </row>
     <row r="196" spans="4:7">
-      <c r="D196" s="48"/>
-      <c r="E196" s="48"/>
-      <c r="F196" s="50"/>
-      <c r="G196" s="48"/>
+      <c r="D196" s="50"/>
+      <c r="E196" s="50"/>
+      <c r="F196" s="52"/>
+      <c r="G196" s="50"/>
     </row>
     <row r="197" spans="4:7">
-      <c r="D197" s="48"/>
-      <c r="E197" s="48"/>
-      <c r="F197" s="50"/>
-      <c r="G197" s="48"/>
+      <c r="D197" s="50"/>
+      <c r="E197" s="50"/>
+      <c r="F197" s="52"/>
+      <c r="G197" s="50"/>
     </row>
     <row r="198" spans="4:7">
-      <c r="D198" s="48"/>
-      <c r="E198" s="48"/>
-      <c r="F198" s="50"/>
-      <c r="G198" s="48"/>
+      <c r="D198" s="50"/>
+      <c r="E198" s="50"/>
+      <c r="F198" s="52"/>
+      <c r="G198" s="50"/>
     </row>
     <row r="199" spans="4:7">
-      <c r="D199" s="48"/>
-      <c r="E199" s="48"/>
-      <c r="F199" s="50"/>
-      <c r="G199" s="48"/>
+      <c r="D199" s="50"/>
+      <c r="E199" s="50"/>
+      <c r="F199" s="52"/>
+      <c r="G199" s="50"/>
     </row>
     <row r="200" spans="4:7">
-      <c r="D200" s="48"/>
-      <c r="E200" s="48"/>
-      <c r="F200" s="50"/>
-      <c r="G200" s="48"/>
+      <c r="D200" s="50"/>
+      <c r="E200" s="50"/>
+      <c r="F200" s="52"/>
+      <c r="G200" s="50"/>
     </row>
     <row r="201" spans="4:7">
-      <c r="D201" s="48"/>
-      <c r="E201" s="48"/>
-      <c r="F201" s="50"/>
-      <c r="G201" s="48"/>
+      <c r="D201" s="50"/>
+      <c r="E201" s="50"/>
+      <c r="F201" s="52"/>
+      <c r="G201" s="50"/>
     </row>
     <row r="202" spans="4:7">
-      <c r="D202" s="48"/>
-      <c r="E202" s="48"/>
-      <c r="F202" s="50"/>
-      <c r="G202" s="48"/>
+      <c r="D202" s="50"/>
+      <c r="E202" s="50"/>
+      <c r="F202" s="52"/>
+      <c r="G202" s="50"/>
     </row>
     <row r="203" spans="4:7">
-      <c r="D203" s="48"/>
-      <c r="E203" s="48"/>
-      <c r="F203" s="50"/>
-      <c r="G203" s="48"/>
+      <c r="D203" s="50"/>
+      <c r="E203" s="50"/>
+      <c r="F203" s="52"/>
+      <c r="G203" s="50"/>
     </row>
     <row r="204" spans="4:7">
-      <c r="D204" s="48"/>
-      <c r="E204" s="48"/>
-      <c r="F204" s="50"/>
-      <c r="G204" s="48"/>
+      <c r="D204" s="50"/>
+      <c r="E204" s="50"/>
+      <c r="F204" s="52"/>
+      <c r="G204" s="50"/>
     </row>
     <row r="205" spans="4:7">
-      <c r="D205" s="48"/>
-      <c r="E205" s="48"/>
-      <c r="F205" s="50"/>
-      <c r="G205" s="48"/>
+      <c r="D205" s="50"/>
+      <c r="E205" s="50"/>
+      <c r="F205" s="52"/>
+      <c r="G205" s="50"/>
     </row>
     <row r="206" spans="4:7">
-      <c r="D206" s="48"/>
-      <c r="E206" s="48"/>
-      <c r="F206" s="50"/>
-      <c r="G206" s="48"/>
+      <c r="D206" s="50"/>
+      <c r="E206" s="50"/>
+      <c r="F206" s="52"/>
+      <c r="G206" s="50"/>
     </row>
     <row r="207" spans="4:7">
-      <c r="D207" s="48"/>
-      <c r="E207" s="48"/>
-      <c r="F207" s="50"/>
-      <c r="G207" s="48"/>
+      <c r="D207" s="50"/>
+      <c r="E207" s="50"/>
+      <c r="F207" s="52"/>
+      <c r="G207" s="50"/>
     </row>
     <row r="208" spans="4:7">
-      <c r="D208" s="48"/>
-      <c r="E208" s="48"/>
-      <c r="F208" s="50"/>
-      <c r="G208" s="48"/>
+      <c r="D208" s="50"/>
+      <c r="E208" s="50"/>
+      <c r="F208" s="52"/>
+      <c r="G208" s="50"/>
     </row>
     <row r="209" spans="4:7">
-      <c r="D209" s="48"/>
-      <c r="G209" s="48"/>
+      <c r="D209" s="50"/>
+      <c r="G209" s="50"/>
     </row>
     <row r="210" spans="4:7">
-      <c r="D210" s="48"/>
-      <c r="E210" s="48"/>
-      <c r="F210" s="50"/>
-      <c r="G210" s="48"/>
+      <c r="D210" s="50"/>
+      <c r="E210" s="50"/>
+      <c r="F210" s="52"/>
+      <c r="G210" s="50"/>
     </row>
     <row r="211" spans="4:7">
-      <c r="D211" s="48"/>
-      <c r="E211" s="48"/>
-      <c r="F211" s="50"/>
-      <c r="G211" s="48"/>
+      <c r="D211" s="50"/>
+      <c r="E211" s="50"/>
+      <c r="F211" s="52"/>
+      <c r="G211" s="50"/>
     </row>
     <row r="232" spans="5:6">
       <c r="E232" s="5"/>
-      <c r="F232" s="56"/>
+      <c r="F232" s="58"/>
     </row>
     <row r="233" spans="5:6">
       <c r="E233" s="5"/>
-      <c r="F233" s="56"/>
+      <c r="F233" s="58"/>
     </row>
     <row r="236" spans="5:6">
-      <c r="E236" s="57"/>
-      <c r="F236" s="58"/>
+      <c r="E236" s="59"/>
+      <c r="F236" s="60"/>
     </row>
     <row r="237" spans="5:6">
       <c r="E237" s="5"/>
-      <c r="F237" s="56"/>
+      <c r="F237" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G135">
